--- a/medicine/Autisme/Atypical/Atypical.xlsx
+++ b/medicine/Autisme/Atypical/Atypical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atypical, ou Atypique au Québec, est une série télévisée américaine de type comédie créée par Robia Rashid[1], diffusée sur Netflix entre le 11 août 2017 et le 9 juillet 2021. La première saison est composée de huit épisodes[2], et les suivantes de dix épisodes. La série est un récit initiatique de l'évolution d'un adolescent autiste[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atypical, ou Atypique au Québec, est une série télévisée américaine de type comédie créée par Robia Rashid, diffusée sur Netflix entre le 11 août 2017 et le 9 juillet 2021. La première saison est composée de huit épisodes, et les suivantes de dix épisodes. La série est un récit initiatique de l'évolution d'un adolescent autiste.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sam Gardner, un garçon de 18 ans vivant dans le Connecticut et ayant un trouble du spectre de l'autisme (TSA), annonce à sa famille qu'il veut avoir une petite amie.
 Son père, Doug, a eu beaucoup de mal a établir une connexion avec Sam depuis sa naissance et est ravi quand Sam se rapproche finalement de lui pour obtenir des conseils sur les filles. Après avoir reçu plusieurs conseils, Sam décide d'offrir à son béguin des fraises enrobées de chocolat, Doug le conduit chez elle et découvre avec stupeur qu'il s'agit de sa thérapeute de 26 ans, Julia. Doug ramène rapidement Sam chez lui avant qu'il ne puisse voir Julia qui n'a aucune idée que Sam est amoureux d'elle. Doug lui conseille de fréquenter des filles de son âge. Sam décide alors qu'il lui faut une « petite amie d'essai » avant de pouvoir réellement commencer à fréquenter sa thérapeute Julia. Avec l'aide de ses amis et de sa famille, il va commencer à apprendre les nuances sociales de l'amour.
@@ -548,19 +562,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acteurs principaux
-Keir Gilchrist (VF : Hervé Grull) : Sam Gardner, le frère de Casey
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Keir Gilchrist (VF : Hervé Grull) : Sam Gardner, le frère de Casey
 Brigette Lundy-Paine (VF : Sylvie Jacob) : Casey Gardner, la sœur de Sam
 Jennifer Jason Leigh (VF : Marie-Laure Dougnac) : Elsa Gardner, la mère de Sam et Casey
-Michael Rapaport (VF : Jean-François Vlérick) : Doug Gardner, le père de Sam et Casey
-Acteurs secondaires
-Amy Okuda (VF : Geneviève Doang) : Julia Sasaki, la thérapeute de Sam
+Michael Rapaport (VF : Jean-François Vlérick) : Doug Gardner, le père de Sam et Casey</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Atypical</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atypical</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amy Okuda (VF : Geneviève Doang) : Julia Sasaki, la thérapeute de Sam
 Nik Dodani (VF : Eilias Changuel) : Zahid Raja, le meilleur ami de Sam
 Graham Rogers (VF : Taric Mehani) : Evan Chapin, le petit ami de Casey (saison 1, 2 et 3) et son « ami » (depuis la saison 3)
 Jenna Boyd (VF : Jessica Barrier) : Paige Hardaway, la petite amie de Sam
-Fivel Stewart (VF : Adeline Chetail) : Izzie Taylor, la meilleure amie de Casey (depuis la saison 2) et sa petite amie (depuis la saison 3)
-Acteurs récurrents
-Raúl Castillo (VF : Jean-Alain Velardo) : Nick, le barman (saisons 1 – 2)
+Fivel Stewart (VF : Adeline Chetail) : Izzie Taylor, la meilleure amie de Casey (depuis la saison 2) et sa petite amie (depuis la saison 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Atypical</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atypical</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raúl Castillo (VF : Jean-Alain Velardo) : Nick, le barman (saisons 1 – 2)
 Graham Phillips (VF : Clément Moreau) : Nate (depuis la saison 2)
 Casey Wilson (VF : Valérie Nosrée) : Mme Whitaker (saison 2)
 Rachel Redleaf : Beth Chapin, la sœur d'Evan
@@ -570,46 +657,121 @@
 Studio de doublage : VSI Paris
 Direction artistique : Maïk Darah
 Adaptation : Jennifer Dufrene et Aline Langel
- Source et légende : version française (VF) sur RS Doublage[4]
+ Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Atypical</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Atypical</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Atypical</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atypical</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Développement
-Netflix commence sa diffusion le 11 août 2017[5].
-Une deuxième saison est confirmée le 14 septembre 2017[6], avec cette fois-ci 10 épisodes de prévus contrairement aux 8 épisodes de la première saison.
-Une troisième saison de 10 épisodes est disponible depuis le 1er novembre 2019[7].
-Une quatrième et dernière saison de 10 épisodes est disponible depuis le 9 juillet 2021[8].
-Tournage
-La série est tournée à Santa Clarita, en Californie.
-Fiche technique
-Titre original : Atypical
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Netflix commence sa diffusion le 11 août 2017.
+Une deuxième saison est confirmée le 14 septembre 2017, avec cette fois-ci 10 épisodes de prévus contrairement aux 8 épisodes de la première saison.
+Une troisième saison de 10 épisodes est disponible depuis le 1er novembre 2019.
+Une quatrième et dernière saison de 10 épisodes est disponible depuis le 9 juillet 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Atypical</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atypical</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série est tournée à Santa Clarita, en Californie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Atypical</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atypical</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Titre original : Atypical
 Titre québécois : Atypique
 Création : Robia Rashid
 Production : Robia Rashid, Seth Gordon et Mary Rohlich
@@ -625,43 +787,82 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Atypical</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Atypical</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Atypical</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atypical</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison (2017)
-L'Antarctique (Antarctica)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Première saison (2017)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'Antarctique (Antarctica)
 Une femme humaine (An Human Female)
 Julia dit (Julia Says)
 Une odeur neutre (A Nice Neutral Smell)
 C'est mon gilet (That's My Sweatshirt)
 L'Avion pour le 7e ciel (The D-Train to Bone Town)
 Boulette est mort (I Lost My Poor Meatball)
-Insonoriser la planète  (The Silencing Properties of Snow)
-Deuxième saison (2018)
-Que des galères (Juiced!)
+Insonoriser la planète  (The Silencing Properties of Snow)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Atypical</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atypical</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2018)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Que des galères (Juiced!)
 La vie des manchots (Penguin Cam and Chill)
 Coincé dans le ventre du lion (Little Dude and the Lion)
 Ton pantalon est en feu (Pants on Fire)
@@ -670,9 +871,43 @@
 Pas de fumée sans feu (The Smudging)
 Vivre penchée (Living at an Angle)
 Rituellement délicieux (Ritual-licious)
-Les Règles de survie d'Ernest Shackelton (Ernest Shackleton's Rules for Survival)
-Troisième saison (2019)
-Disponible le 1er novembre 2019 sur Netflix
+Les Règles de survie d'Ernest Shackelton (Ernest Shackleton's Rules for Survival)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Atypical</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atypical</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Troisième saison (2019)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Disponible le 1er novembre 2019 sur Netflix
 Dragon malin planifie bien (Best Laid Plans)
 Sam seul debout (Standing Sam)
 Pilule de cocaïne et viande de poney (Cocaine Pills and Pony Meat)
@@ -682,9 +917,43 @@
 Pertes et Profits (Shrinkage)
 Paige la chauffarde (Road Rage Paige)
 La Balade de Sam (Sam Takes a Walk)
-Marronglacé_lefait (Searching for Brown Sugar Man)
-Quatrième saison (2021)
-Le 24 février 2020, la série a été renouvelée pour une quatrième et dernière saison, diffusée à partir du 9 juillet 2021[8].
+Marronglacé_lefait (Searching for Brown Sugar Man)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Atypical</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atypical</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Quatrième saison (2021)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 24 février 2020, la série a été renouvelée pour une quatrième et dernière saison, diffusée à partir du 9 juillet 2021.
 L'oiseau magique (Magical Bird #1)
 Expert en manchots (Master of Penguins)
 Évolution, révolution ! (You Say You Want a Revolution)
@@ -699,34 +968,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Atypical</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Atypical</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Atypical</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atypical</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">La série reçoit rapidement de bonnes critiques de la part de la presse mais surtout des spectateurs qui saluent son « originalité », le caractère « attachant » de la série mais aussi son côté intelligent qui invite le spectateur à s'interroger sur ce qu'est la normalité.
-Cependant, malgré ces avis positifs la série est critiquée pour représenter des traits trop stéréotypés des troubles du spectre de l'autisme et pour ne pas avoir attribué le rôle principal à un acteur réellement autiste[6],[9]. La première saison de la série est aussi critiquée pour son renforcement de la normativité des rôles de genre (le soin aux personnes autistes incombent aux femmes). Toutefois la série a infléchi le traitement dans les saisons ultérieures.
+Cependant, malgré ces avis positifs la série est critiquée pour représenter des traits trop stéréotypés des troubles du spectre de l'autisme et pour ne pas avoir attribué le rôle principal à un acteur réellement autiste,. La première saison de la série est aussi critiquée pour son renforcement de la normativité des rôles de genre (le soin aux personnes autistes incombent aux femmes). Toutefois la série a infléchi le traitement dans les saisons ultérieures.
 </t>
         </is>
       </c>
